--- a/结果/KNN分类/样本熵/KNN_CE_sampen.xlsx
+++ b/结果/KNN分类/样本熵/KNN_CE_sampen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\KNN分类\样本熵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA330518-6108-47EB-80E7-0DDC4785E7E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C66E296-90AB-452E-9325-88276CF7EA58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3228" yWindow="2688" windowWidth="19668" windowHeight="9792" activeTab="4" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="CE_sampen" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="CE_sampen_d2" sheetId="3" r:id="rId3"/>
     <sheet name="CE_sampen_d3" sheetId="4" r:id="rId4"/>
     <sheet name="CE_sampen_d4" sheetId="5" r:id="rId5"/>
+    <sheet name="CE_sampen_multi_attri" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1181,7 +1182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC339BC2-0F36-4CD8-B815-A4D639B732E3}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -1367,4 +1368,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DAE573-B881-4BC9-86A9-662BE0DA4188}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/结果/KNN分类/样本熵/KNN_CE_sampen.xlsx
+++ b/结果/KNN分类/样本熵/KNN_CE_sampen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\KNN分类\样本熵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C66E296-90AB-452E-9325-88276CF7EA58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D32F24-4AC9-44B7-8FE1-9B18D160D105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="7248" yWindow="1068" windowWidth="19668" windowHeight="11616" firstSheet="2" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="CE_sampen" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,7 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +77,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -93,8 +114,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -603,10 +627,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B038117A-81B0-4F3C-9CF3-DF6B9DB7B45B}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -785,6 +809,20 @@
       </c>
       <c r="C36">
         <v>97.260300000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>96.25</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>95.612253333333328</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>96.93495333333334</v>
       </c>
     </row>
   </sheetData>
@@ -795,10 +833,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D0F86B-29FE-4EC6-B519-AF748B856E8E}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -977,6 +1015,20 @@
       </c>
       <c r="C36">
         <v>98.8506</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>95</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>95.334119999999999</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>94.653853333333331</v>
       </c>
     </row>
   </sheetData>
@@ -990,7 +1042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC14F498-A620-4CDA-BA15-A75C7B465F58}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
@@ -1372,15 +1424,207 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DAE573-B881-4BC9-86A9-662BE0DA4188}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>96.875</v>
+      </c>
+      <c r="B2">
+        <v>97.530900000000003</v>
+      </c>
+      <c r="C2">
+        <v>96.202500000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>98.125</v>
+      </c>
+      <c r="B4">
+        <v>97.647099999999995</v>
+      </c>
+      <c r="C4">
+        <v>98.666700000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>98.125</v>
+      </c>
+      <c r="B6">
+        <v>98.780500000000004</v>
+      </c>
+      <c r="C6">
+        <v>97.435900000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>98.125</v>
+      </c>
+      <c r="B8">
+        <v>95.945899999999995</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>97.5</v>
+      </c>
+      <c r="B10">
+        <v>97.435900000000004</v>
+      </c>
+      <c r="C10">
+        <v>97.561000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>97.5</v>
+      </c>
+      <c r="B15">
+        <v>96.341499999999996</v>
+      </c>
+      <c r="C15">
+        <v>98.7179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>96.25</v>
+      </c>
+      <c r="B17">
+        <v>94.444400000000002</v>
+      </c>
+      <c r="C17">
+        <v>97.7273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>99.375</v>
+      </c>
+      <c r="B19">
+        <v>98.780500000000004</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>98.125</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>98.75</v>
+      </c>
+      <c r="B23">
+        <v>98.734200000000001</v>
+      </c>
+      <c r="C23">
+        <v>98.7654</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>97.5</v>
+      </c>
+      <c r="B28">
+        <v>98.571399999999997</v>
+      </c>
+      <c r="C28">
+        <v>96.666700000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>96.25</v>
+      </c>
+      <c r="B30">
+        <v>93.9024</v>
+      </c>
+      <c r="C30">
+        <v>98.7179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>99.375</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>98.8506</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>98.125</v>
+      </c>
+      <c r="B34">
+        <v>97.777799999999999</v>
+      </c>
+      <c r="C34">
+        <v>98.571399999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>98.125</v>
+      </c>
+      <c r="B36">
+        <v>97.647099999999995</v>
+      </c>
+      <c r="C36">
+        <v>98.666700000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>97.875</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>97.569306666666662</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>98.170000000000016</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/结果/KNN分类/样本熵/KNN_CE_sampen.xlsx
+++ b/结果/KNN分类/样本熵/KNN_CE_sampen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\KNN分类\样本熵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D32F24-4AC9-44B7-8FE1-9B18D160D105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E59CCB-5FC2-438E-991E-CA5DF5445D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7248" yWindow="1068" windowWidth="19668" windowHeight="11616" firstSheet="2" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="13128" yWindow="0" windowWidth="13620" windowHeight="12360" firstSheet="4" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="CE_sampen" sheetId="1" r:id="rId1"/>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4741E87B-C3D3-4C4C-BF4E-36BCF345D7CA}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -617,6 +617,20 @@
       </c>
       <c r="C36">
         <v>64.102599999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>66.625</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>65.610373333333342</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>67.950553333333332</v>
       </c>
     </row>
   </sheetData>
@@ -629,7 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B038117A-81B0-4F3C-9CF3-DF6B9DB7B45B}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
@@ -835,7 +849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D0F86B-29FE-4EC6-B519-AF748B856E8E}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
@@ -1040,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC14F498-A620-4CDA-BA15-A75C7B465F58}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1222,6 +1236,20 @@
       </c>
       <c r="C36">
         <v>84.9315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>74.375</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>70.225773333333336</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>78.63773999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1426,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DAE573-B881-4BC9-86A9-662BE0DA4188}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C36"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
